--- a/respuestas/data/Prueba API Facebook.xlsx
+++ b/respuestas/data/Prueba API Facebook.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo\Desktop\Main\Python\Pruebas\dataeng\data_adbid\Prueba_DE_adbid\Prueba_DE\respuestas\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2259196-3BC0-483E-A54A-A5876D8DE44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -88,17 +97,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,39 +117,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -328,20 +346,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -367,7 +388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -384,7 +405,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="2">
-        <v>7941012.0</v>
+        <v>7941012</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -393,7 +414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -410,7 +431,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>4180247.0</v>
+        <v>4180247</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
@@ -419,7 +440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -436,7 +457,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>921450.0</v>
+        <v>921450</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
@@ -445,7 +466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -462,7 +483,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="2">
-        <v>8578148.0</v>
+        <v>8578148</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>19</v>
@@ -471,7 +492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -488,7 +509,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="2">
-        <v>594334.0</v>
+        <v>594334</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -497,7 +518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -514,7 +535,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="2">
-        <v>2932998.0</v>
+        <v>2932998</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>19</v>
@@ -523,7 +544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -540,7 +561,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="2">
-        <v>3413609.0</v>
+        <v>3413609</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
@@ -549,7 +570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -566,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2">
-        <v>7477904.0</v>
+        <v>7477904</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -575,7 +596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -592,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="2">
-        <v>6025506.0</v>
+        <v>6025506</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>19</v>
@@ -601,7 +622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -618,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="2">
-        <v>1569802.0</v>
+        <v>1569802</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
@@ -627,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -644,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="2">
-        <v>3880300.0</v>
+        <v>3880300</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
@@ -653,7 +674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -670,7 +691,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="2">
-        <v>1.1036902E7</v>
+        <v>11036902</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
@@ -680,6 +701,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>